--- a/farm_size.xlsx
+++ b/farm_size.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sav61051\Desktop\research\bird_feces\github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sav61051\Desktop\research\bird_feces\WildBirds_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70D0F0B9-DBF9-40DA-8C64-1C8D31FF6D50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61A50D5-3535-49D8-872A-239315D01285}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12660" windowHeight="7155" xr2:uid="{EE1D2ADA-92C2-4518-B0A2-78A9A2E9E472}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
   <si>
     <t>Farm</t>
   </si>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC8ED7D-4F2F-4C60-9266-371E78AFB802}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,10 +751,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>194</v>
+        <v>46.2</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -772,7 +772,7 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -784,27 +784,27 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>46.2</v>
+        <v>95.2</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -839,13 +839,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>95.2</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -883,17 +883,17 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -922,15 +922,15 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>36.200000000000003</v>
+        <v>40.5</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -971,16 +971,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>40.5</v>
+        <v>24.4</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1007,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
         <v>17</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>24.4</v>
+        <v>36.4</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1059,19 +1059,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>36.4</v>
+        <v>6.79</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -1080,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -1092,10 +1092,10 @@
         <v>3</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
         <v>17</v>
@@ -1103,19 +1103,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>6.79</v>
+        <v>7.64</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -1136,10 +1136,10 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
         <v>17</v>
@@ -1147,16 +1147,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>7.64</v>
+        <v>7.14</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1165,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -1177,13 +1177,13 @@
         <v>3</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
         <v>17</v>
@@ -1191,13 +1191,13 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>7.14</v>
+        <v>77.5</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1209,10 +1209,10 @@
         <v>3</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>3</v>
@@ -1221,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>77.5</v>
+        <v>8.14</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -1256,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>3</v>
@@ -1279,19 +1279,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>8.14</v>
+        <v>85.6</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1312,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -1323,16 +1323,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>85.6</v>
+        <v>1.51</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1367,16 +1367,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>1.51</v>
+        <v>10.8</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1388,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>3</v>
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1411,17 +1411,17 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>10.8</v>
+        <v>3.35</v>
       </c>
       <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
       <c r="E23">
         <v>3</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -1444,7 +1444,7 @@
         <v>3</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -1455,16 +1455,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>3.35</v>
+        <v>22.8</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1491,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
         <v>17</v>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>22.8</v>
+        <v>106</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1511,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -1520,42 +1520,42 @@
         <v>3</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>3</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -1564,19 +1564,19 @@
         <v>3</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -1587,16 +1587,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>90.6</v>
+        <v>127</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1623,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
         <v>17</v>
@@ -1631,13 +1631,13 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>233</v>
+        <v>15.8</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1652,10 +1652,10 @@
         <v>3</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -1664,21 +1664,21 @@
         <v>3</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1719,13 +1719,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>15.8</v>
+        <v>24.3</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1755,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
         <v>17</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>74</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>24.3</v>
+        <v>29.1</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -1843,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
         <v>17</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>67.599999999999994</v>
+        <v>34.6</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1895,16 +1895,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>29.1</v>
+        <v>57.3</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -1931,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
         <v>17</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>34.6</v>
+        <v>106</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1975,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
         <v>17</v>
@@ -1983,16 +1983,16 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>57.3</v>
+        <v>142</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -2022,18 +2022,18 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -2063,24 +2063,24 @@
         <v>3</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>142</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -2154,21 +2154,21 @@
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>33.299999999999997</v>
+        <v>30.6</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -2195,18 +2195,18 @@
         <v>3</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -2247,10 +2247,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>30.6</v>
+        <v>24.2</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>24.2</v>
+        <v>8.34</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2371,97 +2371,9 @@
         <v>3</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>72</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-      <c r="J45">
-        <v>3</v>
-      </c>
-      <c r="K45">
-        <v>3</v>
-      </c>
-      <c r="L45">
-        <v>3</v>
-      </c>
-      <c r="M45">
-        <v>3</v>
-      </c>
-      <c r="N45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>8.34</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-      <c r="J46">
-        <v>3</v>
-      </c>
-      <c r="K46">
-        <v>3</v>
-      </c>
-      <c r="L46">
-        <v>3</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46" t="s">
         <v>15</v>
       </c>
     </row>
